--- a/database/levels.xlsx
+++ b/database/levels.xlsx
@@ -139,12 +139,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -157,16 +157,15 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="44.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="0" width="8.6"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/database/levels.xlsx
+++ b/database/levels.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">hậm hực</t>
   </si>
   <si>
-    <t xml:space="preserve">tán thánh</t>
+    <t xml:space="preserve">tán thành</t>
   </si>
   <si>
     <t xml:space="preserve">tin tưởng</t>
@@ -157,7 +157,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -187,7 +187,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -200,7 +200,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -213,7 +213,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -225,7 +225,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -236,7 +236,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/database/levels.xlsx
+++ b/database/levels.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="example" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">example!$A$1:$C$8</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t xml:space="preserve">word</t>
   </si>
@@ -31,16 +34,22 @@
     <t xml:space="preserve">score</t>
   </si>
   <si>
+    <t xml:space="preserve">hậm hực</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giận dữ</t>
+  </si>
+  <si>
     <t xml:space="preserve">tức giận</t>
   </si>
   <si>
-    <t xml:space="preserve">giận dữ</t>
-  </si>
-  <si>
     <t xml:space="preserve">điên tiết</t>
   </si>
   <si>
-    <t xml:space="preserve">hậm hực</t>
+    <t xml:space="preserve">khó chịu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bực</t>
   </si>
   <si>
     <t xml:space="preserve">tán thành</t>
@@ -129,24 +138,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -154,13 +167,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.6"/>
@@ -169,13 +182,13 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -183,14 +196,14 @@
       <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -200,46 +213,71 @@
         <v>4</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0.7</v>
+      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="0" t="n">
+      <c r="B7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="0" t="n">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C8"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -247,5 +285,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/database/levels.xlsx
+++ b/database/levels.xlsx
@@ -11,7 +11,7 @@
     <sheet name="example" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">example!$A$1:$C$8</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">example!$A$1:$C$9</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t xml:space="preserve">word</t>
   </si>
@@ -52,6 +52,12 @@
     <t xml:space="preserve">bực</t>
   </si>
   <si>
+    <t xml:space="preserve">khinh thường</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khinh bỉ</t>
+  </si>
+  <si>
     <t xml:space="preserve">tán thành</t>
   </si>
   <si>
@@ -59,6 +65,30 @@
   </si>
   <si>
     <t xml:space="preserve">ngưỡng mộ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ghê</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinh tởm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ghê tởm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bất an</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sợ hãi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lo sợ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinh hãi</t>
   </si>
 </sst>
 </file>
@@ -68,7 +98,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -89,6 +119,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,7 +168,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -144,6 +179,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -167,10 +206,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -262,7 +301,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -270,14 +309,91 @@
         <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="0" t="n">
         <v>2</v>
       </c>
     </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C8"/>
+  <autoFilter ref="A1:C9"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/database/levels.xlsx
+++ b/database/levels.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t xml:space="preserve">word</t>
   </si>
@@ -89,6 +89,30 @@
   </si>
   <si>
     <t xml:space="preserve">kinh hãi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buồn bã</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buồn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">đau khổ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mừng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vui vẻ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sướng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hân hoan</t>
   </si>
 </sst>
 </file>
@@ -206,10 +230,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -392,6 +416,72 @@
         <v>1.5</v>
       </c>
     </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C9"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/database/levels.xlsx
+++ b/database/levels.xlsx
@@ -11,7 +11,7 @@
     <sheet name="example" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">example!$A$1:$C$9</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">example!$A$1:$C$21</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -34,6 +34,15 @@
     <t xml:space="preserve">score</t>
   </si>
   <si>
+    <t xml:space="preserve">buồn bã</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buồn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">đau khổ</t>
+  </si>
+  <si>
     <t xml:space="preserve">hậm hực</t>
   </si>
   <si>
@@ -58,6 +67,30 @@
     <t xml:space="preserve">khinh bỉ</t>
   </si>
   <si>
+    <t xml:space="preserve">ghê</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinh tởm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ghê tởm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bất an</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sợ hãi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lo sợ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinh hãi</t>
+  </si>
+  <si>
     <t xml:space="preserve">tán thành</t>
   </si>
   <si>
@@ -65,39 +98,6 @@
   </si>
   <si>
     <t xml:space="preserve">ngưỡng mộ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ghê</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kinh tởm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ghê tởm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bất an</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sợ hãi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lo sợ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kinh hãi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buồn bã</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buồn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">đau khổ</t>
   </si>
   <si>
     <t xml:space="preserve">mừng</t>
@@ -233,7 +233,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -259,11 +259,11 @@
       <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -276,7 +276,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -285,47 +285,47 @@
       <c r="A4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>4</v>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="C5" s="0" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -333,21 +333,21 @@
         <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="C9" s="0" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -424,7 +424,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -483,7 +483,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C9"/>
+  <autoFilter ref="A1:C21"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/database/levels.xlsx
+++ b/database/levels.xlsx
@@ -11,7 +11,7 @@
     <sheet name="example" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">example!$A$1:$C$21</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">example!$A$1:$C$22</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
   <si>
     <t xml:space="preserve">word</t>
   </si>
@@ -43,6 +43,9 @@
     <t xml:space="preserve">đau khổ</t>
   </si>
   <si>
+    <t xml:space="preserve">tâm trạng</t>
+  </si>
+  <si>
     <t xml:space="preserve">hậm hực</t>
   </si>
   <si>
@@ -52,7 +55,7 @@
     <t xml:space="preserve">tức giận</t>
   </si>
   <si>
-    <t xml:space="preserve">điên tiết</t>
+    <t xml:space="preserve">thịnh nộ</t>
   </si>
   <si>
     <t xml:space="preserve">khó chịu</t>
@@ -113,6 +116,66 @@
   </si>
   <si>
     <t xml:space="preserve">hân hoan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sung sướng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ngất ngây</t>
+  </si>
+  <si>
+    <t xml:space="preserve">êm đềm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bình yên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanh thản</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quan tâm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mong đợi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cảnh giác</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chán nản</t>
+  </si>
+  <si>
+    <t xml:space="preserve">đau buồn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lơ là</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ngạc nhiên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinh ngạc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sợ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e ngại</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khiếp sợ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chấp nhận</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yêu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lạc quan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nóng giận</t>
   </si>
 </sst>
 </file>
@@ -192,7 +255,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -206,6 +269,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -230,10 +297,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B54" activeCellId="0" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -242,6 +309,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="44.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="0" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -285,23 +353,24 @@
       <c r="A4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
+      <c r="B4" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="C5" s="0" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -310,10 +379,10 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -322,21 +391,22 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0.7</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -344,98 +414,98 @@
         <v>12</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="C10" s="0" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="C11" s="0" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>18</v>
+      <c r="B12" s="0" t="s">
+        <v>16</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="C13" s="0" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>18</v>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>18</v>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>23</v>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="C17" s="0" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -443,21 +513,21 @@
         <v>25</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="C19" s="0" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -465,10 +535,10 @@
         <v>28</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -476,14 +546,377 @@
         <v>29</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="0" t="n">
         <v>1.2</v>
       </c>
     </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C21"/>
+  <autoFilter ref="A1:C22"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/database/levels.xlsx
+++ b/database/levels.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="64">
   <si>
     <t xml:space="preserve">word</t>
   </si>
@@ -176,6 +176,45 @@
   </si>
   <si>
     <t xml:space="preserve">nóng giận</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xem thường</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coi thường</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lo âu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hi vọng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tội lỗi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vui sướng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bất ngờ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phục tùng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tò mò</t>
+  </si>
+  <si>
+    <t xml:space="preserve">đa cảm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phiền muộn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xấu hổ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thất vọng</t>
   </si>
 </sst>
 </file>
@@ -268,11 +307,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -297,10 +336,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B54" activeCellId="0" sqref="B54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -589,7 +628,7 @@
       <c r="A25" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="0" t="n">
@@ -600,7 +639,7 @@
       <c r="A26" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="0" t="n">
@@ -611,7 +650,7 @@
       <c r="A27" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="0" t="n">
@@ -622,7 +661,7 @@
       <c r="A28" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C28" s="0" t="n">
@@ -740,7 +779,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="0" t="s">
@@ -776,7 +815,7 @@
       <c r="A42" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C42" s="0" t="n">
@@ -872,10 +911,10 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C51" s="0" t="n">
@@ -886,7 +925,7 @@
       <c r="A52" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C52" s="0" t="n">
@@ -897,7 +936,7 @@
       <c r="A53" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C53" s="0" t="n">
@@ -908,10 +947,263 @@
       <c r="A54" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C54" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" s="0" t="n">
         <v>0.5</v>
       </c>
     </row>
